--- a/data/trans_camb/P1414-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1414-Estudios-trans_camb.xlsx
@@ -618,7 +618,7 @@
         <v>1.261848883520975</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.783658663365709</v>
+        <v>3.783658663365707</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5994003902224928</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6572093257501042</v>
+        <v>-0.6545267771949624</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1488485752800077</v>
+        <v>-0.1649776158848341</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4603116650400744</v>
+        <v>-0.5035307389015334</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.190341535242197</v>
+        <v>2.058469465960053</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.3971453992108347</v>
+        <v>-0.4025466049976197</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.337322913254883</v>
+        <v>1.425351155047199</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2629936267693818</v>
+        <v>0.2607106349351367</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.797300860933289</v>
+        <v>1.778267096794049</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.179192454339129</v>
+        <v>3.165900985445668</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.758084585947794</v>
+        <v>5.704428472628279</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.635927537964726</v>
+        <v>1.635776823497017</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.623530811913741</v>
+        <v>3.644812334131158</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>0.3278605596474698</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.9830911316612169</v>
+        <v>0.9830911316612165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.253603337285131</v>
@@ -713,18 +713,20 @@
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr"/>
-      <c r="D8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="n">
+        <v>-0.8210019276821068</v>
+      </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1193060348731086</v>
+        <v>-0.1232521315807888</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.464860390606506</v>
+        <v>0.4153927077634484</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1525699927795471</v>
+        <v>-0.1547651109242764</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4387144600950402</v>
+        <v>0.4828207259116035</v>
       </c>
     </row>
     <row r="9">
@@ -737,16 +739,16 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>0.9995360409874006</v>
+        <v>1.026441008501818</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.859247534910411</v>
+        <v>1.825375810374031</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8240964955660286</v>
+        <v>0.8430867288503124</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.82628140929187</v>
+        <v>1.844847233118986</v>
       </c>
     </row>
     <row r="10">
@@ -787,22 +789,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.0697841999331171</v>
+        <v>-0.07625243047525855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1668493763792678</v>
+        <v>-0.1948667298002377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2194631788642525</v>
+        <v>0.08074123410295886</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5881898606227771</v>
+        <v>0.5931276952386686</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2911853558936457</v>
+        <v>0.2480464612448037</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3707077895177833</v>
+        <v>0.3417074925955717</v>
       </c>
     </row>
     <row r="12">
@@ -813,22 +815,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6891220192580481</v>
+        <v>0.6857061196226301</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4253397794074234</v>
+        <v>0.4432241121130378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.362633925703478</v>
+        <v>2.32814622879874</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.374705650051332</v>
+        <v>2.398995885592925</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.328017461663244</v>
+        <v>1.290117348405435</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.337639253460047</v>
+        <v>1.325002153060267</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +844,7 @@
         <v>1.352058850563413</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.555522928898853</v>
+        <v>0.5555229288988532</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.6205226768734093</v>
@@ -865,22 +867,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4462673760855128</v>
+        <v>-0.3487602285044438</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5855409202884723</v>
+        <v>-0.6394187928545119</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.06619095298999139</v>
+        <v>0.03067507129825716</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1867456883955847</v>
+        <v>0.2199049434863984</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1955794102959473</v>
+        <v>0.1833182625640871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2472487182257207</v>
+        <v>0.2043346033203875</v>
       </c>
     </row>
     <row r="15">
@@ -891,22 +893,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7.33290858586186</v>
+        <v>9.670029123084694</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5.00214612887979</v>
+        <v>6.32536064385872</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.502062529648178</v>
+        <v>1.563313708984191</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.513191763513937</v>
+        <v>1.615125865595319</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.578205597026137</v>
+        <v>1.593401482684446</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.642513243572753</v>
+        <v>1.546390026149587</v>
       </c>
     </row>
     <row r="16">
@@ -930,13 +932,13 @@
         <v>0.3461450889302711</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7412774180144908</v>
+        <v>0.7412774180144904</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.4273352164076506</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.5641607755809268</v>
+        <v>0.564160775580927</v>
       </c>
     </row>
     <row r="17">
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08333785011116675</v>
+        <v>0.08186692065797342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.693908197539111</v>
+        <v>-1.555744544084243</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.042646571999399</v>
+        <v>-0.9128142587091062</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.4795036380682709</v>
+        <v>-0.4488654683357967</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.3558148024817476</v>
+        <v>-0.3791271224068207</v>
       </c>
     </row>
     <row r="18">
@@ -973,22 +975,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.609655209399161</v>
+        <v>1.706887623180243</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9958576464453454</v>
+        <v>0.9948279329448081</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.774270445360117</v>
+        <v>1.724711202269508</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.172526078794117</v>
+        <v>2.091728755199141</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.310727098698511</v>
+        <v>1.307261556674736</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.291840752755104</v>
+        <v>1.198794609334102</v>
       </c>
     </row>
     <row r="19">
@@ -1012,13 +1014,13 @@
         <v>0.2833269342765509</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.6067509406056923</v>
+        <v>0.6067509406056921</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7167638799180811</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9462596361757267</v>
+        <v>0.9462596361757271</v>
       </c>
     </row>
     <row r="20">
@@ -1031,16 +1033,16 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.7453322932002138</v>
+        <v>-0.7147911707926857</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4882281335331698</v>
+        <v>-0.4912812711294008</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5901398072973005</v>
+        <v>-0.6045289949547239</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4038329616240885</v>
+        <v>-0.4382858132683783</v>
       </c>
     </row>
     <row r="21">
@@ -1053,16 +1055,16 @@
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>4.605905175265979</v>
+        <v>3.942035470612613</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>5.28522338616043</v>
+        <v>6.812415694926882</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.596125972814865</v>
+        <v>6.19683893185825</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.057536076322545</v>
+        <v>5.982242507149111</v>
       </c>
     </row>
     <row r="22">
@@ -1080,19 +1082,19 @@
         <v>0.1999914078949948</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2044216478273723</v>
+        <v>0.2044216478273724</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.9271172460433359</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.544845844539405</v>
+        <v>1.544845844539406</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.576078600201421</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.9030866090688103</v>
+        <v>0.9030866090688097</v>
       </c>
     </row>
     <row r="23">
@@ -1103,22 +1105,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.05841541690942883</v>
+        <v>-0.07168985186753143</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.04468395553646187</v>
+        <v>-0.07150083834407939</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09965089034995776</v>
+        <v>0.02586097663098387</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8640594561317321</v>
+        <v>0.8521820582226869</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1322380104971486</v>
+        <v>0.1333685006817406</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4903247964643725</v>
+        <v>0.4312133989829767</v>
       </c>
     </row>
     <row r="24">
@@ -1129,22 +1131,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4823443545703266</v>
+        <v>0.4788634560593258</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.502622231023639</v>
+        <v>0.4766752870487495</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.775072754592205</v>
+        <v>1.757901421964707</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.317362529194628</v>
+        <v>2.310853783922414</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.052135867791936</v>
+        <v>1.022126595098433</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.297199742512437</v>
+        <v>1.294857579043124</v>
       </c>
     </row>
     <row r="25">
@@ -1158,19 +1160,19 @@
         <v>0.9262400433437668</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.9467582529517672</v>
+        <v>0.9467582529517675</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.3547032681959351</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.5910383743324554</v>
+        <v>0.5910383743324559</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4008175385976511</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6283395211363501</v>
+        <v>0.6283395211363496</v>
       </c>
     </row>
     <row r="26">
@@ -1181,22 +1183,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3019285744800581</v>
+        <v>-0.3395460220592302</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2327555867869226</v>
+        <v>-0.2873766176571104</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.02934723341714511</v>
+        <v>0.005217625635444575</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2789536115297163</v>
+        <v>0.2814494454669989</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.07405367218571657</v>
+        <v>0.07784583386157429</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2780579508222167</v>
+        <v>0.2620532553985951</v>
       </c>
     </row>
     <row r="27">
@@ -1207,22 +1209,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.622177861441946</v>
+        <v>4.177314104542408</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4.441855672237045</v>
+        <v>4.219173663667029</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7844266756579468</v>
+        <v>0.7628648934629861</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.018921255010253</v>
+        <v>1.043582250828599</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8672393760220103</v>
+        <v>0.8322125957997698</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.067176544854748</v>
+        <v>1.072646890618086</v>
       </c>
     </row>
     <row r="28">
